--- a/mbs-perturbation/nano/knn/nearmiss/nano-knn-nearmiss-results.xlsx
+++ b/mbs-perturbation/nano/knn/nearmiss/nano-knn-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4324324324324324</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4559523809523809</v>
+        <v>0.3678571428571429</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0.4827586206896551</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7571428571428571</v>
+        <v>0.7095238095238094</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>0.63</v>
+        <v>0.7874999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="C5" t="n">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9500000000000001</v>
+        <v>0.5142857142857143</v>
       </c>
       <c r="E5" t="n">
-        <v>0.985</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6925000000000001</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.778434841021048</v>
+        <v>0.6991176470588235</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5966666666666666</v>
+        <v>0.3466666666666666</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6452397154634935</v>
+        <v>0.442562020148227</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7041190476190475</v>
+        <v>0.5744761904761905</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/nano/knn/nearmiss/nano-knn-nearmiss-results.xlsx
+++ b/mbs-perturbation/nano/knn/nearmiss/nano-knn-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4324324324324324</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3678571428571429</v>
+        <v>0.4002770083102494</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.875</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4827586206896551</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7095238095238094</v>
+        <v>0.57202216066482</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7874999999999999</v>
+        <v>0.5277008310249307</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6</v>
+        <v>0.0625</v>
       </c>
       <c r="C5" t="n">
-        <v>0.45</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5142857142857143</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4125</v>
+        <v>0.08187134502923976</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.75</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C6" t="n">
-        <v>0.15</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>0.6341463414634148</v>
       </c>
       <c r="E6" t="n">
-        <v>0.595</v>
+        <v>0.4766081871345029</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6991176470588235</v>
+        <v>0.4882575757575758</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3466666666666666</v>
+        <v>0.4216374269005848</v>
       </c>
       <c r="D7" t="n">
-        <v>0.442562020148227</v>
+        <v>0.440613381465883</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5744761904761905</v>
+        <v>0.4116959064327485</v>
       </c>
     </row>
   </sheetData>
